--- a/biology/Botanique/Filipendula/Filipendula.xlsx
+++ b/biology/Botanique/Filipendula/Filipendula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Filipendula est un genre de plantes à fleurs de la famille des Rosaceae. C'est l'unique genre de la tribu des Ulmarieae, dans la sous-famille des Rosoideae.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Filipendula angustiloba
 Filipendula glaberrima
@@ -554,7 +568,9 @@
           <t>Plantes hôtes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Filipendula sont les plantes hôtes des chenilles de plusieurs papillons, Brenthis hecate, Brenthis ino, Clossiana titania staudingeri, Pyrgus malvae ainsi que Saturnia pavonia, Eupithecia subfuscata, Eupithecia centaureata, Eupsilia transversa Orthosia gothica, Alcis repandata,
 </t>
